--- a/docs/PTA2_DDC_80/PTA2_DDC_80_08.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731779686.3087134</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731779689.913051</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779686.3087134.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779689.913051.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7123</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7112.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-10.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731779699.1080067</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731779699.1080067.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731779699.1080067.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7088</v>
       </c>
-      <c r="J4" t="n">
-        <v>7088</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7075.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731779704.8912466</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731779706.7657132</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779704.8912466.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779706.7657132.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>475.55</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>473.85</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731779707.1769423</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731779708.0988593</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779707.1769423.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779708.0988593.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>472.65</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>474.2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.550000000000011</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731779712.5562432</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731779714.0347168</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779712.5562432.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779714.0347168.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>473.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>474.05</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731779714.6151218</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731779716.0460045</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779714.6151218.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779716.0460045.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>475.05</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>473.9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.150000000000034</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731779718.815828</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731779720.6467562</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779718.815828.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779720.6467562.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>475.25</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>474.65</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731779726.8167243</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731779729.7963474</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779726.8167243.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779729.7963474.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>931.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>930.8</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731779733.8146558</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731779735.1050014</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779733.8146558.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779735.1050014.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>932.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>931.6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.199999999999932</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731779739.4935923</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731779739.4935923.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731779739.4935923.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>931.4</v>
       </c>
-      <c r="J12" t="n">
-        <v>931.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>930.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731779741.8564918</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731779743.5784736</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779741.8564918.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779743.5784736.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>129.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>130.18</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.8799999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731779745.6102118</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731779749.2601514</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779745.6102118.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779749.2601514.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>129.02</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>129.78</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731779752.9830868</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731779754.3706048</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779752.9830868.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779754.3706048.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>130.06</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>129.74</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731779758.079519</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731779758.9881623</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779758.079519.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779758.9881623.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>130.46</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.06</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731779762.909048</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731779763.7907646</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779762.909048.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779763.7907646.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>38.03</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>37.83</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731779765.361432</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731779768.5383291</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779765.361432.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779768.5383291.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>37.705</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>37.84</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1350000000000051</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731779768.9997673</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731779770.4761395</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779768.9997673.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779770.4761395.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>37.98</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>37.815</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1649999999999991</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731779772.576723</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731779774.0170705</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779772.576723.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779774.0170705.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>37.99</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>37.925</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.06500000000000483</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731779775.815951</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731779778.4297986</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779775.815951.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779778.4297986.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>38.05</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>37.985</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.06499999999999773</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1511,95 +1641,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731779780.0352895</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731779780.0352895.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731779780.0352895.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>37.945</v>
       </c>
-      <c r="J22" t="n">
-        <v>37.945</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>37.975</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731779782.352095</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731779784.5865722</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779782.352095.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779784.5865722.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1184</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1183.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731779792.3344727</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731779793.8560688</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779792.3344727.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779793.8560688.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1186.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731779794.4522421</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731779798.6414168</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779794.4522421.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779798.6414168.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1191</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1188.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731779804.4820435</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731779807.7839482</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779804.4820435.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779807.7839482.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>78.59</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>78.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731779808.97446</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731779810.1246746</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779808.97446.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779810.1246746.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>78.63</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731779812.0504234</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731779813.5307868</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779812.0504234.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779813.5307868.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>78.63</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731779815.6368957</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731779818.0925975</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779815.6368957.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779818.0925975.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>78.68000000000001</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>78.53</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731779820.1059213</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731779822.1121144</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779820.1059213.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779822.1121144.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>103.28</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>103.63</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731779822.6287389</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731779827.6996257</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779822.6287389.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779827.6996257.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>103</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>102.7</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.2999999999999972</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731779831.4551313</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731779832.951416</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779831.4551313.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779832.951416.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>103.1</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>102.66</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731779835.4236856</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731779836.3281755</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779835.4236856.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779836.3281755.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>103.36</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>102.98</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731779843.720175</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731779847.535658</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731779843.720175.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731779847.535658.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>2746.55</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>2746.65</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.09999999999990905</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731779851.617857</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731779852.9808366</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MXI1731779851.617857.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MXI1731779852.9808366.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>2754.55</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>2746.85</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>7.700000000000273</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2231,95 +2445,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731779858.446457</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731779858.446457.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731779858.446457.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>2742.55</v>
       </c>
-      <c r="J36" t="n">
-        <v>2742.55</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731779869.185443</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731779870.18997</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/APTK1731779869.185443.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/APTK1731779870.18997.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>10.832</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>10.868</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.03599999999999959</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731779872.8604622</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731779874.5657678</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/APTK1731779872.8604622.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/APTK1731779874.5657678.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>10.836</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>10.854</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01799999999999891</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2379,95 +2611,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731779877.4707305</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/APTK1731779877.4707305.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/APTK1731779877.4707305.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>10.858</v>
       </c>
-      <c r="J39" t="n">
-        <v>10.858</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>10.868</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731779881.9455144</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731779882.6265917</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731779881.9455144.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731779882.6265917.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>484.3</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>481</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>3.300000000000011</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731779889.911931</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731779894.0923562</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731779889.911931.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731779894.0923562.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>484.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>484.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2527,95 +2777,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731779896.0438876</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/PIKK1731779896.0438876.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/PIKK1731779896.0438876.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>483.3</v>
       </c>
-      <c r="J42" t="n">
-        <v>483.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>484.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731779901.4277637</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731779902.874894</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/TATN1731779901.4277637.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/TATN1731779902.874894.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>573</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>575.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731779905.1326144</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731779913.96928</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/TATN1731779905.1326144.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/TATN1731779913.96928.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>577.8</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>582.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-4.400000000000091</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.76</v>
       </c>
     </row>
@@ -2675,44 +2943,50 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731779914.932548</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731779914.932548.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731779914.932548.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>578.5</v>
       </c>
-      <c r="J45" t="n">
-        <v>578.5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>575.7</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-2.799999999999955</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -2773,19 +3047,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6300000000000097</v>
+        <v>0.6600000000000108</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1050000000000016</v>
+        <v>0.1100000000000018</v>
       </c>
       <c r="E2" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="F2" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -2883,19 +3157,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05399999999999849</v>
+        <v>0.04399999999999871</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0179999999999995</v>
+        <v>0.01466666666666624</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="F7" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -2927,19 +3201,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.800000000000182</v>
+        <v>9.699999999999818</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>2.60000000000006</v>
+        <v>3.233333333333273</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
@@ -2949,19 +3223,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5999999999999091</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1999999999999697</v>
+        <v>-3.789561257387201e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2971,19 +3245,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.300000000000011</v>
+        <v>4.199999999999989</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1.100000000000004</v>
+        <v>1.399999999999996</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
@@ -2993,19 +3267,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.600000000000136</v>
+        <v>-4.400000000000091</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5333333333333788</v>
+        <v>-1.466666666666697</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.27</v>
+        <v>-0.75</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.09</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13">
@@ -3015,19 +3289,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-10.5</v>
+        <v>-23</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.25</v>
+        <v>-11.5</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.15</v>
+        <v>-0.33</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.08</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="14">
